--- a/Document.xlsx
+++ b/Document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitMeCODE\Trusity\Aayan\PassportOCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sigeducation-my.sharepoint.com/personal/aayan_lalani_scholarsinternationalacademy_com/Documents/Old Onedrive/Desktop/PassportOCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F74CD-C93F-435E-95D7-8CEDDEE1CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{C81F74CD-C93F-435E-95D7-8CEDDEE1CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D776FFA-1E9A-4EF3-9174-BF90896CB59C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="5730" windowWidth="24690" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Folder</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>Downside</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>OldPassport</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>Simpler</t>
+  </si>
+  <si>
+    <t>SimplerB&amp;W</t>
+  </si>
+  <si>
+    <t>Upside</t>
+  </si>
+  <si>
+    <t>Zoom</t>
   </si>
 </sst>
 </file>
@@ -383,16 +404,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,33 +454,56 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
